--- a/medicine/Sexualité et sexologie/L'arrière-train_sifflera_trois_fois/L'arrière-train_sifflera_trois_fois.xlsx
+++ b/medicine/Sexualité et sexologie/L'arrière-train_sifflera_trois_fois/L'arrière-train_sifflera_trois_fois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27arri%C3%A8re-train_sifflera_trois_fois</t>
+          <t>L'arrière-train_sifflera_trois_fois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arrière-train sifflera trois fois est un western érotique français réalisé par Jean-Marie Pallardy et sorti en 1974. Le titre est inspiré du western Le train sifflera trois fois (1952).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27arri%C3%A8re-train_sifflera_trois_fois</t>
+          <t>L'arrière-train_sifflera_trois_fois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est une farce érotique qui se déroule au XIXe siècle aux États-Unis et conte les aventures de John Keykett (Jean-Marie Pallardy), patron d'un saloon, Lulu (une prostituée, Alice Arno) et de Lucky Lucky (l'institutrice, Willeke van Ammelrooy).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27arri%C3%A8re-train_sifflera_trois_fois</t>
+          <t>L'arrière-train_sifflera_trois_fois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'arrière-train sifflera trois fois
 Titre alternatif : Lucky Lucky et les Daltines (version comprenant des inserts hard)
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27arri%C3%A8re-train_sifflera_trois_fois</t>
+          <t>L'arrière-train_sifflera_trois_fois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Marie Pallardy : John Kayket
 Willeke van Ammelrooy : Lucky Lucky
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27arri%C3%A8re-train_sifflera_trois_fois</t>
+          <t>L'arrière-train_sifflera_trois_fois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +650,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film n'est généralement connu que par le jeu de mots de son titre, mais est assez apprécié par la communauté des amateurs de nanars. 
 Les éditions Le Chat qui fume ont sorti en 2008 une version en DVD entièrement remastérisée.
